--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2452,28 +2452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2392.672582888144</v>
+        <v>2490.152046942998</v>
       </c>
       <c r="AB2" t="n">
-        <v>3273.760185172245</v>
+        <v>3407.135888382545</v>
       </c>
       <c r="AC2" t="n">
-        <v>2961.31710785056</v>
+        <v>3081.963621140439</v>
       </c>
       <c r="AD2" t="n">
-        <v>2392672.582888144</v>
+        <v>2490152.046942998</v>
       </c>
       <c r="AE2" t="n">
-        <v>3273760.185172245</v>
+        <v>3407135.888382545</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.044094847656103e-06</v>
+        <v>1.931848827260455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.55416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2961317.10785056</v>
+        <v>3081963.621140439</v>
       </c>
     </row>
     <row r="3">
@@ -2558,28 +2558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>793.5399621386745</v>
+        <v>842.3223645933871</v>
       </c>
       <c r="AB3" t="n">
-        <v>1085.756384710488</v>
+        <v>1152.502619876732</v>
       </c>
       <c r="AC3" t="n">
-        <v>982.1333192223748</v>
+        <v>1042.509387383283</v>
       </c>
       <c r="AD3" t="n">
-        <v>793539.9621386745</v>
+        <v>842322.3645933871</v>
       </c>
       <c r="AE3" t="n">
-        <v>1085756.384710488</v>
+        <v>1152502.619876732</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.962145549947546e-06</v>
+        <v>3.630482985420305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.744791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>982133.3192223748</v>
+        <v>1042509.387383282</v>
       </c>
     </row>
     <row r="4">
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>597.7488957294412</v>
+        <v>646.445957329582</v>
       </c>
       <c r="AB4" t="n">
-        <v>817.8664099571425</v>
+        <v>884.4958780011895</v>
       </c>
       <c r="AC4" t="n">
-        <v>739.810387673548</v>
+        <v>800.0808328025167</v>
       </c>
       <c r="AD4" t="n">
-        <v>597748.8957294412</v>
+        <v>646445.9573295821</v>
       </c>
       <c r="AE4" t="n">
-        <v>817866.4099571425</v>
+        <v>884495.8780011894</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.295929120079887e-06</v>
+        <v>4.248069979520057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.618749999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>739810.387673548</v>
+        <v>800080.8328025168</v>
       </c>
     </row>
     <row r="5">
@@ -2770,28 +2770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>508.8597063476686</v>
+        <v>545.3612568426826</v>
       </c>
       <c r="AB5" t="n">
-        <v>696.2442995307326</v>
+        <v>746.1873312527667</v>
       </c>
       <c r="AC5" t="n">
-        <v>629.7957207685305</v>
+        <v>674.9722596384991</v>
       </c>
       <c r="AD5" t="n">
-        <v>508859.7063476687</v>
+        <v>545361.2568426826</v>
       </c>
       <c r="AE5" t="n">
-        <v>696244.2995307327</v>
+        <v>746187.3312527668</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.487913026676985e-06</v>
+        <v>4.603290470881627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.108333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>629795.7207685305</v>
+        <v>674972.259638499</v>
       </c>
     </row>
     <row r="6">
@@ -2876,28 +2876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>457.8603159571691</v>
+        <v>494.4471177982036</v>
       </c>
       <c r="AB6" t="n">
-        <v>626.4646836641394</v>
+        <v>676.524360038823</v>
       </c>
       <c r="AC6" t="n">
-        <v>566.675773503939</v>
+        <v>611.9578246246198</v>
       </c>
       <c r="AD6" t="n">
-        <v>457860.315957169</v>
+        <v>494447.1177982036</v>
       </c>
       <c r="AE6" t="n">
-        <v>626464.6836641395</v>
+        <v>676524.360038823</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.563481160124779e-06</v>
+        <v>4.743111302587777e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.928124999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>566675.773503939</v>
+        <v>611957.8246246198</v>
       </c>
     </row>
     <row r="7">
@@ -2982,28 +2982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>458.1692959401523</v>
+        <v>494.7560977811867</v>
       </c>
       <c r="AB7" t="n">
-        <v>626.887443708092</v>
+        <v>676.9471200827753</v>
       </c>
       <c r="AC7" t="n">
-        <v>567.0581859226442</v>
+        <v>612.3402370433248</v>
       </c>
       <c r="AD7" t="n">
-        <v>458169.2959401523</v>
+        <v>494756.0977811867</v>
       </c>
       <c r="AE7" t="n">
-        <v>626887.443708092</v>
+        <v>676947.1200827754</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.568295346232457e-06</v>
+        <v>4.75201880731037e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>567058.1859226441</v>
+        <v>612340.2370433249</v>
       </c>
     </row>
   </sheetData>
@@ -3279,28 +3279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1428.601972071766</v>
+        <v>1499.013652667477</v>
       </c>
       <c r="AB2" t="n">
-        <v>1954.676243659483</v>
+        <v>2051.016611394648</v>
       </c>
       <c r="AC2" t="n">
-        <v>1768.12468636996</v>
+        <v>1855.270464623036</v>
       </c>
       <c r="AD2" t="n">
-        <v>1428601.972071766</v>
+        <v>1499013.652667477</v>
       </c>
       <c r="AE2" t="n">
-        <v>1954676.243659483</v>
+        <v>2051016.611394648</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.381026818177912e-06</v>
+        <v>2.632450252628517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1768124.68636996</v>
+        <v>1855270.464623036</v>
       </c>
     </row>
     <row r="3">
@@ -3385,28 +3385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>615.1134025322946</v>
+        <v>650.4046284389973</v>
       </c>
       <c r="AB3" t="n">
-        <v>841.6252942327806</v>
+        <v>889.9123064573349</v>
       </c>
       <c r="AC3" t="n">
-        <v>761.3017573797224</v>
+        <v>804.9803249288128</v>
       </c>
       <c r="AD3" t="n">
-        <v>615113.4025322946</v>
+        <v>650404.6284389973</v>
       </c>
       <c r="AE3" t="n">
-        <v>841625.2942327806</v>
+        <v>889912.3064573349</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.229624107940168e-06</v>
+        <v>4.250007652970573e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.051041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>761301.7573797224</v>
+        <v>804980.3249288128</v>
       </c>
     </row>
     <row r="4">
@@ -3491,28 +3491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>467.8295938888838</v>
+        <v>503.0354789410149</v>
       </c>
       <c r="AB4" t="n">
-        <v>640.1050895438135</v>
+        <v>688.2753346461701</v>
       </c>
       <c r="AC4" t="n">
-        <v>579.0143581908868</v>
+        <v>622.5873027080382</v>
       </c>
       <c r="AD4" t="n">
-        <v>467829.5938888838</v>
+        <v>503035.4789410149</v>
       </c>
       <c r="AE4" t="n">
-        <v>640105.0895438135</v>
+        <v>688275.3346461701</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.543075392100972e-06</v>
+        <v>4.847494176269604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.181250000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>579014.3581908868</v>
+        <v>622587.3027080382</v>
       </c>
     </row>
     <row r="5">
@@ -3597,28 +3597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>436.9567216062403</v>
+        <v>472.1626066583714</v>
       </c>
       <c r="AB5" t="n">
-        <v>597.8634636717019</v>
+        <v>646.0337087740586</v>
       </c>
       <c r="AC5" t="n">
-        <v>540.8042138055152</v>
+        <v>584.3771583226667</v>
       </c>
       <c r="AD5" t="n">
-        <v>436956.7216062403</v>
+        <v>472162.6066583715</v>
       </c>
       <c r="AE5" t="n">
-        <v>597863.4636717018</v>
+        <v>646033.7087740586</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.616269360718204e-06</v>
+        <v>4.987013176654789e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.008333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>540804.2138055152</v>
+        <v>584377.1583226667</v>
       </c>
     </row>
   </sheetData>
@@ -3894,28 +3894,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>426.4031323472637</v>
+        <v>457.7935493293875</v>
       </c>
       <c r="AB2" t="n">
-        <v>583.4235772560718</v>
+        <v>626.373330618473</v>
       </c>
       <c r="AC2" t="n">
-        <v>527.7424498828851</v>
+        <v>566.5931390647362</v>
       </c>
       <c r="AD2" t="n">
-        <v>426403.1323472637</v>
+        <v>457793.5493293875</v>
       </c>
       <c r="AE2" t="n">
-        <v>583423.5772560717</v>
+        <v>626373.330618473</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.491640489263013e-06</v>
+        <v>5.306542172503034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.040625000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>527742.4498828851</v>
+        <v>566593.1390647362</v>
       </c>
     </row>
     <row r="3">
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.2438433114298</v>
+        <v>417.0122724216217</v>
       </c>
       <c r="AB3" t="n">
-        <v>513.4251810087018</v>
+        <v>570.5745884103079</v>
       </c>
       <c r="AC3" t="n">
-        <v>464.4246023299979</v>
+        <v>516.1197504988918</v>
       </c>
       <c r="AD3" t="n">
-        <v>375243.8433114298</v>
+        <v>417012.2724216217</v>
       </c>
       <c r="AE3" t="n">
-        <v>513425.1810087018</v>
+        <v>570574.5884103079</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.634611750102719e-06</v>
+        <v>5.611033542093131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.658333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>464424.6023299979</v>
+        <v>516119.7504988917</v>
       </c>
     </row>
   </sheetData>
@@ -4297,28 +4297,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>674.8978194184327</v>
+        <v>718.6997522572137</v>
       </c>
       <c r="AB2" t="n">
-        <v>923.4249709187221</v>
+        <v>983.3567078336365</v>
       </c>
       <c r="AC2" t="n">
-        <v>835.2945877293253</v>
+        <v>889.5065237878013</v>
       </c>
       <c r="AD2" t="n">
-        <v>674897.8194184328</v>
+        <v>718699.7522572137</v>
       </c>
       <c r="AE2" t="n">
-        <v>923424.9709187221</v>
+        <v>983356.7078336366</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.027153438181795e-06</v>
+        <v>4.115822330636872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.278125000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>835294.5877293253</v>
+        <v>889506.5237878013</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.051498840158</v>
+        <v>423.8816356327386</v>
       </c>
       <c r="AB3" t="n">
-        <v>535.0539126876508</v>
+        <v>579.9735542106743</v>
       </c>
       <c r="AC3" t="n">
-        <v>483.9891182136236</v>
+        <v>524.6216921948026</v>
       </c>
       <c r="AD3" t="n">
-        <v>391051.498840158</v>
+        <v>423881.6356327385</v>
       </c>
       <c r="AE3" t="n">
-        <v>535053.9126876509</v>
+        <v>579973.5542106743</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.66318632175024e-06</v>
+        <v>5.407188980986898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.301041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>483989.1182136235</v>
+        <v>524621.6921948026</v>
       </c>
     </row>
     <row r="4">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>393.3396772484576</v>
+        <v>426.1698140410381</v>
       </c>
       <c r="AB4" t="n">
-        <v>538.1846993331932</v>
+        <v>583.1043408562166</v>
       </c>
       <c r="AC4" t="n">
-        <v>486.821106975802</v>
+        <v>527.453680956981</v>
       </c>
       <c r="AD4" t="n">
-        <v>393339.6772484576</v>
+        <v>426169.8140410381</v>
       </c>
       <c r="AE4" t="n">
-        <v>538184.6993331931</v>
+        <v>583104.3408562166</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.662703014087953e-06</v>
+        <v>5.406207699337696e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>486821.106975802</v>
+        <v>527453.680956981</v>
       </c>
     </row>
   </sheetData>
@@ -4806,28 +4806,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.5888669811646</v>
+        <v>406.7284213806963</v>
       </c>
       <c r="AB2" t="n">
-        <v>515.2655017318896</v>
+        <v>556.5037697246256</v>
       </c>
       <c r="AC2" t="n">
-        <v>466.0892854262709</v>
+        <v>503.3918310000529</v>
       </c>
       <c r="AD2" t="n">
-        <v>376588.8669811647</v>
+        <v>406728.4213806962</v>
       </c>
       <c r="AE2" t="n">
-        <v>515265.5017318896</v>
+        <v>556503.7697246256</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.550875001259199e-06</v>
+        <v>5.680300380590645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.141666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>466089.2854262709</v>
+        <v>503391.8310000529</v>
       </c>
     </row>
     <row r="3">
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.9711027739915</v>
+        <v>410.1106571735231</v>
       </c>
       <c r="AB3" t="n">
-        <v>519.8932259573475</v>
+        <v>561.1314939500836</v>
       </c>
       <c r="AC3" t="n">
-        <v>470.2753461467029</v>
+        <v>507.5778917204849</v>
       </c>
       <c r="AD3" t="n">
-        <v>379971.1027739915</v>
+        <v>410110.6571735231</v>
       </c>
       <c r="AE3" t="n">
-        <v>519893.2259573474</v>
+        <v>561131.4939500836</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550525206949805e-06</v>
+        <v>5.679521456986862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.142708333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>470275.3461467029</v>
+        <v>507577.8917204849</v>
       </c>
     </row>
   </sheetData>
@@ -5209,28 +5209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1623.894918024527</v>
+        <v>1695.073048644057</v>
       </c>
       <c r="AB2" t="n">
-        <v>2221.884668028759</v>
+        <v>2319.273726499903</v>
       </c>
       <c r="AC2" t="n">
-        <v>2009.831113746811</v>
+        <v>2097.925497163871</v>
       </c>
       <c r="AD2" t="n">
-        <v>1623894.918024526</v>
+        <v>1695073.048644057</v>
       </c>
       <c r="AE2" t="n">
-        <v>2221884.668028759</v>
+        <v>2319273.726499903</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.290850090114261e-06</v>
+        <v>2.440692452026549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.06875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2009831.113746811</v>
+        <v>2097925.497163871</v>
       </c>
     </row>
     <row r="3">
@@ -5315,28 +5315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.9169636104522</v>
+        <v>694.5487441017787</v>
       </c>
       <c r="AB3" t="n">
-        <v>901.559258976643</v>
+        <v>950.3122330080877</v>
       </c>
       <c r="AC3" t="n">
-        <v>815.5157086462784</v>
+        <v>859.6157672613911</v>
       </c>
       <c r="AD3" t="n">
-        <v>658916.9636104521</v>
+        <v>694548.7441017786</v>
       </c>
       <c r="AE3" t="n">
-        <v>901559.2589766431</v>
+        <v>950312.2330080877</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.15635228817836e-06</v>
+        <v>4.077152563239345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.225000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>815515.7086462785</v>
+        <v>859615.767261391</v>
       </c>
     </row>
     <row r="4">
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>501.1243953500744</v>
+        <v>536.6708349868293</v>
       </c>
       <c r="AB4" t="n">
-        <v>685.6605057659878</v>
+        <v>734.2967126752347</v>
       </c>
       <c r="AC4" t="n">
-        <v>620.2220294262451</v>
+        <v>664.2164650094186</v>
       </c>
       <c r="AD4" t="n">
-        <v>501124.3953500744</v>
+        <v>536670.8349868293</v>
       </c>
       <c r="AE4" t="n">
-        <v>685660.5057659878</v>
+        <v>734296.7126752348</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.474465848793935e-06</v>
+        <v>4.678630126147522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.295833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>620222.029426245</v>
+        <v>664216.4650094185</v>
       </c>
     </row>
     <row r="5">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>432.5703570967477</v>
+        <v>479.9085966979719</v>
       </c>
       <c r="AB5" t="n">
-        <v>591.8618462370694</v>
+        <v>656.6321140752025</v>
       </c>
       <c r="AC5" t="n">
-        <v>535.3753823155212</v>
+        <v>593.9640666968246</v>
       </c>
       <c r="AD5" t="n">
-        <v>432570.3570967477</v>
+        <v>479908.5966979719</v>
       </c>
       <c r="AE5" t="n">
-        <v>591861.8462370693</v>
+        <v>656632.1140752025</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.603835021305676e-06</v>
+        <v>4.923236657372521e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.983333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>535375.3823155211</v>
+        <v>593964.0666968246</v>
       </c>
     </row>
     <row r="6">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>433.5172358783382</v>
+        <v>480.8554754795623</v>
       </c>
       <c r="AB6" t="n">
-        <v>593.1574075593851</v>
+        <v>657.9276753975181</v>
       </c>
       <c r="AC6" t="n">
-        <v>536.5472970835667</v>
+        <v>595.1359814648702</v>
       </c>
       <c r="AD6" t="n">
-        <v>433517.2358783382</v>
+        <v>480855.4754795623</v>
       </c>
       <c r="AE6" t="n">
-        <v>593157.4075593851</v>
+        <v>657927.6753975181</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.607574014730871e-06</v>
+        <v>4.930306210298098e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.975000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>536547.2970835667</v>
+        <v>595135.9814648702</v>
       </c>
     </row>
   </sheetData>
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.1150730078346</v>
+        <v>416.3134289470296</v>
       </c>
       <c r="AB2" t="n">
-        <v>515.9854800321509</v>
+        <v>569.618399937573</v>
       </c>
       <c r="AC2" t="n">
-        <v>466.7405500080512</v>
+        <v>515.2548193119758</v>
       </c>
       <c r="AD2" t="n">
-        <v>377115.0730078346</v>
+        <v>416313.4289470296</v>
       </c>
       <c r="AE2" t="n">
-        <v>515985.4800321509</v>
+        <v>569618.399937573</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.46464501762772e-06</v>
+        <v>5.650363213491481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.564583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>466740.5500080512</v>
+        <v>515254.8193119757</v>
       </c>
     </row>
   </sheetData>
@@ -6227,28 +6227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>987.8394834085565</v>
+        <v>1044.815936741841</v>
       </c>
       <c r="AB2" t="n">
-        <v>1351.605561601845</v>
+        <v>1429.563258676164</v>
       </c>
       <c r="AC2" t="n">
-        <v>1222.610223792884</v>
+        <v>1293.127747672745</v>
       </c>
       <c r="AD2" t="n">
-        <v>987839.4834085564</v>
+        <v>1044815.936741841</v>
       </c>
       <c r="AE2" t="n">
-        <v>1351605.561601845</v>
+        <v>1429563.258676164</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.673379351594544e-06</v>
+        <v>3.279800403132807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.679166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1222610.223792884</v>
+        <v>1293127.747672745</v>
       </c>
     </row>
     <row r="3">
@@ -6333,28 +6333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.2633067340666</v>
+        <v>515.5345195886092</v>
       </c>
       <c r="AB3" t="n">
-        <v>658.485688112176</v>
+        <v>705.3770734789649</v>
       </c>
       <c r="AC3" t="n">
-        <v>595.6407382292169</v>
+        <v>638.0568755890722</v>
       </c>
       <c r="AD3" t="n">
-        <v>481263.3067340666</v>
+        <v>515534.5195886092</v>
       </c>
       <c r="AE3" t="n">
-        <v>658485.688112176</v>
+        <v>705377.073478965</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.466687421826412e-06</v>
+        <v>4.834673257321952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.565625</v>
       </c>
       <c r="AH3" t="n">
-        <v>595640.7382292169</v>
+        <v>638056.8755890722</v>
       </c>
     </row>
     <row r="4">
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>413.3213394837367</v>
+        <v>447.4219601376872</v>
       </c>
       <c r="AB4" t="n">
-        <v>565.5244911322246</v>
+        <v>612.1824647241666</v>
       </c>
       <c r="AC4" t="n">
-        <v>511.5516274171727</v>
+        <v>553.756629494377</v>
       </c>
       <c r="AD4" t="n">
-        <v>413321.3394837367</v>
+        <v>447421.9601376872</v>
       </c>
       <c r="AE4" t="n">
-        <v>565524.4911322247</v>
+        <v>612182.4647241666</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.648454794249197e-06</v>
+        <v>5.190934795257489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.115625000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>511551.6274171727</v>
+        <v>553756.6294943769</v>
       </c>
     </row>
     <row r="5">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>415.508384039358</v>
+        <v>449.6090046933083</v>
       </c>
       <c r="AB5" t="n">
-        <v>568.5169019788217</v>
+        <v>615.1748755707637</v>
       </c>
       <c r="AC5" t="n">
-        <v>514.2584467724456</v>
+        <v>556.4634488496499</v>
       </c>
       <c r="AD5" t="n">
-        <v>415508.3840393579</v>
+        <v>449609.0046933083</v>
       </c>
       <c r="AE5" t="n">
-        <v>568516.9019788217</v>
+        <v>615174.8755707637</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.648299304623515e-06</v>
+        <v>5.190630037740007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.115625000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>514258.4467724456</v>
+        <v>556463.4488496499</v>
       </c>
     </row>
   </sheetData>
@@ -6842,28 +6842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1260.438104014651</v>
+        <v>1330.228026756107</v>
       </c>
       <c r="AB2" t="n">
-        <v>1724.587020517478</v>
+        <v>1820.07667172643</v>
       </c>
       <c r="AC2" t="n">
-        <v>1559.994855752374</v>
+        <v>1646.371108670511</v>
       </c>
       <c r="AD2" t="n">
-        <v>1260438.104014651</v>
+        <v>1330228.026756107</v>
       </c>
       <c r="AE2" t="n">
-        <v>1724587.020517478</v>
+        <v>1820076.67172643</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.473365777508894e-06</v>
+        <v>2.832844920206757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1559994.855752375</v>
+        <v>1646371.108670511</v>
       </c>
     </row>
     <row r="3">
@@ -6948,28 +6948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>563.2218235993334</v>
+        <v>609.7199918087802</v>
       </c>
       <c r="AB3" t="n">
-        <v>770.624946641811</v>
+        <v>834.24579174038</v>
       </c>
       <c r="AC3" t="n">
-        <v>697.0775833132212</v>
+        <v>754.6265442479997</v>
       </c>
       <c r="AD3" t="n">
-        <v>563221.8235993334</v>
+        <v>609719.9918087801</v>
       </c>
       <c r="AE3" t="n">
-        <v>770624.9466418109</v>
+        <v>834245.79174038</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.301991200306007e-06</v>
+        <v>4.426045573810785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.893750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>697077.5833132212</v>
+        <v>754626.5442479998</v>
       </c>
     </row>
     <row r="4">
@@ -7054,28 +7054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>436.89649440683</v>
+        <v>471.7488748588231</v>
       </c>
       <c r="AB4" t="n">
-        <v>597.7810581604319</v>
+        <v>645.4676226733577</v>
       </c>
       <c r="AC4" t="n">
-        <v>540.729672960584</v>
+        <v>583.8650986849098</v>
       </c>
       <c r="AD4" t="n">
-        <v>436896.4944068299</v>
+        <v>471748.8748588231</v>
       </c>
       <c r="AE4" t="n">
-        <v>597781.0581604319</v>
+        <v>645467.6226733577</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.607450654747671e-06</v>
+        <v>5.013353408059007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.086458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>540729.6729605841</v>
+        <v>583865.0986849098</v>
       </c>
     </row>
     <row r="5">
@@ -7160,28 +7160,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>429.767707041424</v>
+        <v>464.6200874934173</v>
       </c>
       <c r="AB5" t="n">
-        <v>588.0271367871813</v>
+        <v>635.7137013001072</v>
       </c>
       <c r="AC5" t="n">
-        <v>531.906652153482</v>
+        <v>575.0420778778076</v>
       </c>
       <c r="AD5" t="n">
-        <v>429767.7070414241</v>
+        <v>464620.0874934173</v>
       </c>
       <c r="AE5" t="n">
-        <v>588027.1367871814</v>
+        <v>635713.7013001072</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.627560703618643e-06</v>
+        <v>5.052019060987069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.039583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>531906.652153482</v>
+        <v>575042.0778778077</v>
       </c>
     </row>
   </sheetData>
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2086.928994019625</v>
+        <v>2171.578982095212</v>
       </c>
       <c r="AB2" t="n">
-        <v>2855.428318426976</v>
+        <v>2971.2501666059</v>
       </c>
       <c r="AC2" t="n">
-        <v>2582.91024733512</v>
+        <v>2687.678220880833</v>
       </c>
       <c r="AD2" t="n">
-        <v>2086928.994019625</v>
+        <v>2171578.982095212</v>
       </c>
       <c r="AE2" t="n">
-        <v>2855428.318426976</v>
+        <v>2971250.1666059</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.124496189418198e-06</v>
+        <v>2.094851111871069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.621875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2582910.24733512</v>
+        <v>2687678.220880833</v>
       </c>
     </row>
     <row r="3">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>747.3490974987088</v>
+        <v>795.7205192561871</v>
       </c>
       <c r="AB3" t="n">
-        <v>1022.55600591296</v>
+        <v>1088.739919158059</v>
       </c>
       <c r="AC3" t="n">
-        <v>924.964695874994</v>
+        <v>984.832109329687</v>
       </c>
       <c r="AD3" t="n">
-        <v>747349.0974987089</v>
+        <v>795720.5192561871</v>
       </c>
       <c r="AE3" t="n">
-        <v>1022556.00591296</v>
+        <v>1088739.919158059</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.024004910573046e-06</v>
+        <v>3.770567634862482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.568749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>924964.695874994</v>
+        <v>984832.109329687</v>
       </c>
     </row>
     <row r="4">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>565.812868407347</v>
+        <v>602.1767755800274</v>
       </c>
       <c r="AB4" t="n">
-        <v>774.1701284569646</v>
+        <v>823.9248305129871</v>
       </c>
       <c r="AC4" t="n">
-        <v>700.2844179516308</v>
+        <v>745.2906010745892</v>
       </c>
       <c r="AD4" t="n">
-        <v>565812.868407347</v>
+        <v>602176.7755800274</v>
       </c>
       <c r="AE4" t="n">
-        <v>774170.1284569645</v>
+        <v>823924.8305129871</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.352368973731256e-06</v>
+        <v>4.38228497928619e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.511458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>700284.4179516308</v>
+        <v>745290.6010745892</v>
       </c>
     </row>
     <row r="5">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>478.5448296151853</v>
+        <v>514.7381445872734</v>
       </c>
       <c r="AB5" t="n">
-        <v>654.7661477873764</v>
+        <v>704.2874380685518</v>
       </c>
       <c r="AC5" t="n">
-        <v>592.2761856126085</v>
+        <v>637.071233452916</v>
       </c>
       <c r="AD5" t="n">
-        <v>478544.8296151853</v>
+        <v>514738.1445872734</v>
       </c>
       <c r="AE5" t="n">
-        <v>654766.1477873764</v>
+        <v>704287.4380685517</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.545593505298605e-06</v>
+        <v>4.742247626206366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.017708333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>592276.1856126086</v>
+        <v>637071.233452916</v>
       </c>
     </row>
     <row r="6">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>452.8203232046124</v>
+        <v>501.0210632529473</v>
       </c>
       <c r="AB6" t="n">
-        <v>619.5687432313038</v>
+        <v>685.519122232008</v>
       </c>
       <c r="AC6" t="n">
-        <v>560.4379719475</v>
+        <v>620.0941393383154</v>
       </c>
       <c r="AD6" t="n">
-        <v>452820.3232046124</v>
+        <v>501021.0632529473</v>
       </c>
       <c r="AE6" t="n">
-        <v>619568.7432313038</v>
+        <v>685519.122232008</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.566474695163569e-06</v>
+        <v>4.78114769916121e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.96875</v>
       </c>
       <c r="AH6" t="n">
-        <v>560437.9719475</v>
+        <v>620094.1393383153</v>
       </c>
     </row>
     <row r="7">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>453.2853283753767</v>
+        <v>501.4860684237116</v>
       </c>
       <c r="AB7" t="n">
-        <v>620.2049838205238</v>
+        <v>686.1553628212281</v>
       </c>
       <c r="AC7" t="n">
-        <v>561.0134906278541</v>
+        <v>620.6696580186695</v>
       </c>
       <c r="AD7" t="n">
-        <v>453285.3283753766</v>
+        <v>501486.0684237116</v>
       </c>
       <c r="AE7" t="n">
-        <v>620204.9838205238</v>
+        <v>686155.3628212281</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.571768517946236e-06</v>
+        <v>4.79100968948779e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.95625</v>
       </c>
       <c r="AH7" t="n">
-        <v>561013.4906278541</v>
+        <v>620669.6580186695</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>765.0019438481756</v>
+        <v>820.5190204391494</v>
       </c>
       <c r="AB2" t="n">
-        <v>1046.709409076917</v>
+        <v>1122.670322509247</v>
       </c>
       <c r="AC2" t="n">
-        <v>946.8129321404974</v>
+        <v>1015.524242606658</v>
       </c>
       <c r="AD2" t="n">
-        <v>765001.9438481757</v>
+        <v>820519.0204391493</v>
       </c>
       <c r="AE2" t="n">
-        <v>1046709.409076917</v>
+        <v>1122670.322509247</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.901876606963357e-06</v>
+        <v>3.812306628126641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.713541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>946812.9321404974</v>
+        <v>1015524.242606658</v>
       </c>
     </row>
     <row r="3">
@@ -8390,28 +8390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.3943581385076</v>
+        <v>439.6705572598142</v>
       </c>
       <c r="AB3" t="n">
-        <v>556.0466896588332</v>
+        <v>601.5766533389008</v>
       </c>
       <c r="AC3" t="n">
-        <v>502.9783740142238</v>
+        <v>544.1630218623711</v>
       </c>
       <c r="AD3" t="n">
-        <v>406394.3581385076</v>
+        <v>439670.5572598142</v>
       </c>
       <c r="AE3" t="n">
-        <v>556046.6896588332</v>
+        <v>601576.6533389008</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.636855270633011e-06</v>
+        <v>5.285569415407702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.284375</v>
       </c>
       <c r="AH3" t="n">
-        <v>502978.3740142238</v>
+        <v>544163.0218623711</v>
       </c>
     </row>
     <row r="4">
@@ -8496,28 +8496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>399.4546055804075</v>
+        <v>432.730804701714</v>
       </c>
       <c r="AB4" t="n">
-        <v>546.5514140485654</v>
+        <v>592.081377728633</v>
       </c>
       <c r="AC4" t="n">
-        <v>494.389314181497</v>
+        <v>535.5739620296442</v>
       </c>
       <c r="AD4" t="n">
-        <v>399454.6055804075</v>
+        <v>432730.804701714</v>
       </c>
       <c r="AE4" t="n">
-        <v>546551.4140485654</v>
+        <v>592081.377728633</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.662945422330376e-06</v>
+        <v>5.337867055475688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.222916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>494389.314181497</v>
+        <v>535573.9620296443</v>
       </c>
     </row>
   </sheetData>
@@ -8793,28 +8793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>501.7238486975871</v>
+        <v>544.1342525244831</v>
       </c>
       <c r="AB2" t="n">
-        <v>686.4807042820701</v>
+        <v>744.5084898129962</v>
       </c>
       <c r="AC2" t="n">
-        <v>620.9639493471082</v>
+        <v>673.4536444694713</v>
       </c>
       <c r="AD2" t="n">
-        <v>501723.8486975871</v>
+        <v>544134.2525244831</v>
       </c>
       <c r="AE2" t="n">
-        <v>686480.70428207</v>
+        <v>744508.4898129962</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.317526791841883e-06</v>
+        <v>4.848410981831225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.448958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>620963.9493471081</v>
+        <v>673453.6444694713</v>
       </c>
     </row>
     <row r="3">
@@ -8899,28 +8899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.30891860957</v>
+        <v>411.3300064847577</v>
       </c>
       <c r="AB3" t="n">
-        <v>518.9871963700823</v>
+        <v>562.7998614716099</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.4557867516259</v>
+        <v>509.0870325873253</v>
       </c>
       <c r="AD3" t="n">
-        <v>379308.91860957</v>
+        <v>411330.0064847578</v>
       </c>
       <c r="AE3" t="n">
-        <v>518987.1963700823</v>
+        <v>562799.8614716099</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.654757183075221e-06</v>
+        <v>5.553918049977562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.502083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>469455.7867516258</v>
+        <v>509087.0325873253</v>
       </c>
     </row>
   </sheetData>
@@ -15473,28 +15473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.8226514964118</v>
+        <v>412.7988514534161</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.7441554350635</v>
+        <v>564.809599958595</v>
       </c>
       <c r="AC2" t="n">
-        <v>460.190327267247</v>
+        <v>510.9049644537981</v>
       </c>
       <c r="AD2" t="n">
-        <v>371822.6514964118</v>
+        <v>412798.8514534161</v>
       </c>
       <c r="AE2" t="n">
-        <v>508744.1554350635</v>
+        <v>564809.599958595</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.592284676243544e-06</v>
+        <v>5.635253000563456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.888541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>460190.327267247</v>
+        <v>510904.9644537981</v>
       </c>
     </row>
     <row r="3">
@@ -15579,28 +15579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.9867145286522</v>
+        <v>412.9629144856565</v>
       </c>
       <c r="AB3" t="n">
-        <v>508.968633713725</v>
+        <v>565.0340782372565</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.3933816540502</v>
+        <v>511.1080188406014</v>
       </c>
       <c r="AD3" t="n">
-        <v>371986.7145286522</v>
+        <v>412962.9144856565</v>
       </c>
       <c r="AE3" t="n">
-        <v>508968.633713725</v>
+        <v>565034.0782372565</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.601541611339242e-06</v>
+        <v>5.65537624233243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.863541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>460393.3816540503</v>
+        <v>511108.0188406014</v>
       </c>
     </row>
   </sheetData>
@@ -15876,28 +15876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.7057295132096</v>
+        <v>433.6699875313514</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.4220364246858</v>
+        <v>593.3664091099649</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.7494771589137</v>
+        <v>536.7363518194949</v>
       </c>
       <c r="AD2" t="n">
-        <v>395705.7295132096</v>
+        <v>433669.9875313513</v>
       </c>
       <c r="AE2" t="n">
-        <v>541422.0364246857</v>
+        <v>593366.409109965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.302831634480173e-06</v>
+        <v>5.477347135064985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.322916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>489749.4771589137</v>
+        <v>536736.3518194949</v>
       </c>
     </row>
   </sheetData>
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1122.699797185309</v>
+        <v>1180.230827345056</v>
       </c>
       <c r="AB2" t="n">
-        <v>1536.127392528338</v>
+        <v>1614.843886082825</v>
       </c>
       <c r="AC2" t="n">
-        <v>1389.521550153769</v>
+        <v>1460.725452042709</v>
       </c>
       <c r="AD2" t="n">
-        <v>1122699.797185309</v>
+        <v>1180230.827345056</v>
       </c>
       <c r="AE2" t="n">
-        <v>1536127.392528338</v>
+        <v>1614843.886082825</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.570240644452981e-06</v>
+        <v>3.04717475550994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.20729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1389521.550153769</v>
+        <v>1460725.452042709</v>
       </c>
     </row>
     <row r="3">
@@ -16279,28 +16279,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>522.0901689559155</v>
+        <v>568.0978533059581</v>
       </c>
       <c r="AB3" t="n">
-        <v>714.3468021581516</v>
+        <v>777.2965456016633</v>
       </c>
       <c r="AC3" t="n">
-        <v>646.1705459522107</v>
+        <v>703.1124542319935</v>
       </c>
       <c r="AD3" t="n">
-        <v>522090.1689559155</v>
+        <v>568097.8533059581</v>
       </c>
       <c r="AE3" t="n">
-        <v>714346.8021581516</v>
+        <v>777296.5456016633</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.382057365681195e-06</v>
+        <v>4.622568583052365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.729166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>646170.5459522107</v>
+        <v>703112.4542319935</v>
       </c>
     </row>
     <row r="4">
@@ -16385,28 +16385,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.5231737734671</v>
+        <v>456.0076913309072</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.7466026468253</v>
+        <v>623.9298409184579</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.7027163591523</v>
+        <v>564.3828525922312</v>
       </c>
       <c r="AD4" t="n">
-        <v>421523.1737734671</v>
+        <v>456007.6913309072</v>
       </c>
       <c r="AE4" t="n">
-        <v>576746.6026468253</v>
+        <v>623929.840918458</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.635942428233613e-06</v>
+        <v>5.115252399474844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.081250000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>521702.7163591523</v>
+        <v>564382.8525922312</v>
       </c>
     </row>
     <row r="5">
@@ -16491,28 +16491,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>422.4549607124412</v>
+        <v>456.9394782698814</v>
       </c>
       <c r="AB5" t="n">
-        <v>578.0215146442681</v>
+        <v>625.2047529159009</v>
       </c>
       <c r="AC5" t="n">
-        <v>522.8559525449094</v>
+        <v>565.5360887779883</v>
       </c>
       <c r="AD5" t="n">
-        <v>422454.9607124412</v>
+        <v>456939.4782698813</v>
       </c>
       <c r="AE5" t="n">
-        <v>578021.5146442681</v>
+        <v>625204.7529159009</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.638712083461457e-06</v>
+        <v>5.120627132017635e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.073958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>522855.9525449094</v>
+        <v>565536.0887779883</v>
       </c>
     </row>
   </sheetData>
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1830.846556542893</v>
+        <v>1914.669030617193</v>
       </c>
       <c r="AB2" t="n">
-        <v>2505.045029911512</v>
+        <v>2619.734636926534</v>
       </c>
       <c r="AC2" t="n">
-        <v>2265.967048109538</v>
+        <v>2369.710839998921</v>
       </c>
       <c r="AD2" t="n">
-        <v>1830846.556542893</v>
+        <v>1914669.030617193</v>
       </c>
       <c r="AE2" t="n">
-        <v>2505045.029911512</v>
+        <v>2619734.636926534</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.206503690283981e-06</v>
+        <v>2.263874149003419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2265967.048109538</v>
+        <v>2369710.83999892</v>
       </c>
     </row>
     <row r="3">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>703.358349691271</v>
+        <v>751.1350803071765</v>
       </c>
       <c r="AB3" t="n">
-        <v>962.3659240279999</v>
+        <v>1027.736154617279</v>
       </c>
       <c r="AC3" t="n">
-        <v>870.5190709278244</v>
+        <v>929.6504584573571</v>
       </c>
       <c r="AD3" t="n">
-        <v>703358.349691271</v>
+        <v>751135.0803071765</v>
       </c>
       <c r="AE3" t="n">
-        <v>962365.9240279999</v>
+        <v>1027736.154617279</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.087101627680634e-06</v>
+        <v>3.916221275823047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.400000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>870519.0709278244</v>
+        <v>929650.4584573571</v>
       </c>
     </row>
     <row r="4">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>532.8488238085621</v>
+        <v>568.7240645749149</v>
       </c>
       <c r="AB4" t="n">
-        <v>729.0672683658966</v>
+        <v>778.1533554863415</v>
       </c>
       <c r="AC4" t="n">
-        <v>659.4861115253924</v>
+        <v>703.8874913838181</v>
       </c>
       <c r="AD4" t="n">
-        <v>532848.8238085621</v>
+        <v>568724.0645749149</v>
       </c>
       <c r="AE4" t="n">
-        <v>729067.2683658965</v>
+        <v>778153.3554863415</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.413007380567962e-06</v>
+        <v>4.527748298006838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.401041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>659486.1115253924</v>
+        <v>703887.4913838181</v>
       </c>
     </row>
     <row r="5">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>443.8209986544084</v>
+        <v>491.597639761763</v>
       </c>
       <c r="AB5" t="n">
-        <v>607.255470359536</v>
+        <v>672.6255784792662</v>
       </c>
       <c r="AC5" t="n">
-        <v>549.2998605568267</v>
+        <v>608.4311373051328</v>
       </c>
       <c r="AD5" t="n">
-        <v>443820.9986544084</v>
+        <v>491597.639761763</v>
       </c>
       <c r="AE5" t="n">
-        <v>607255.470359536</v>
+        <v>672625.5784792663</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.585894599797546e-06</v>
+        <v>4.852152532704883e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.972916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>549299.8605568267</v>
+        <v>608431.1373051328</v>
       </c>
     </row>
     <row r="6">
@@ -17212,28 +17212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>440.6507057183775</v>
+        <v>488.4273468257321</v>
       </c>
       <c r="AB6" t="n">
-        <v>602.9177357010052</v>
+        <v>668.2878438207354</v>
       </c>
       <c r="AC6" t="n">
-        <v>545.3761132060572</v>
+        <v>604.5073899543635</v>
       </c>
       <c r="AD6" t="n">
-        <v>440650.7057183775</v>
+        <v>488427.3468257321</v>
       </c>
       <c r="AE6" t="n">
-        <v>602917.7357010052</v>
+        <v>668287.8438207353</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.595087573718845e-06</v>
+        <v>4.869402157534453e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.952083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>545376.1132060572</v>
+        <v>604507.3899543635</v>
       </c>
     </row>
   </sheetData>
@@ -17509,28 +17509,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>428.100701313575</v>
+        <v>482.8911773838321</v>
       </c>
       <c r="AB2" t="n">
-        <v>585.746266007236</v>
+        <v>660.7130125517696</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.8434644795524</v>
+        <v>597.6554899503653</v>
       </c>
       <c r="AD2" t="n">
-        <v>428100.701313575</v>
+        <v>482891.1773838322</v>
       </c>
       <c r="AE2" t="n">
-        <v>585746.2660072361</v>
+        <v>660713.0125517696</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.003160000370397e-06</v>
+        <v>5.009751142052084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.907291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>529843.4644795523</v>
+        <v>597655.4899503654</v>
       </c>
     </row>
   </sheetData>
@@ -17806,28 +17806,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>580.598258065975</v>
+        <v>623.8540459633466</v>
       </c>
       <c r="AB2" t="n">
-        <v>794.4001508732551</v>
+        <v>853.5846281851194</v>
       </c>
       <c r="AC2" t="n">
-        <v>718.5837154215253</v>
+        <v>772.1197092846805</v>
       </c>
       <c r="AD2" t="n">
-        <v>580598.2580659749</v>
+        <v>623854.0459633466</v>
       </c>
       <c r="AE2" t="n">
-        <v>794400.1508732551</v>
+        <v>853584.6281851194</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.163721616754984e-06</v>
+        <v>4.455716133358397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.861458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>718583.7154215253</v>
+        <v>772119.7092846805</v>
       </c>
     </row>
     <row r="3">
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.3946028285989</v>
+        <v>418.7511924056071</v>
       </c>
       <c r="AB3" t="n">
-        <v>528.6821421168833</v>
+        <v>572.9538554481321</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.2254604832941</v>
+        <v>518.2719436299483</v>
       </c>
       <c r="AD3" t="n">
-        <v>386394.6028285989</v>
+        <v>418751.1924056071</v>
       </c>
       <c r="AE3" t="n">
-        <v>528682.1421168833</v>
+        <v>572953.8554481321</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.656723545885799e-06</v>
+        <v>5.470946850838322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.402083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>478225.460483294</v>
+        <v>518271.9436299483</v>
       </c>
     </row>
     <row r="4">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>387.7535629466926</v>
+        <v>420.1101525237007</v>
       </c>
       <c r="AB4" t="n">
-        <v>530.5415313035483</v>
+        <v>574.813244634797</v>
       </c>
       <c r="AC4" t="n">
-        <v>479.9073921756526</v>
+        <v>519.9538753223069</v>
       </c>
       <c r="AD4" t="n">
-        <v>387753.5629466926</v>
+        <v>420110.1525237007</v>
       </c>
       <c r="AE4" t="n">
-        <v>530541.5313035483</v>
+        <v>574813.244634797</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.660969339246979e-06</v>
+        <v>5.479690142873591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.392708333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>479907.3921756526</v>
+        <v>519953.8753223069</v>
       </c>
     </row>
   </sheetData>
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>876.1191642282926</v>
+        <v>921.1644830519377</v>
       </c>
       <c r="AB2" t="n">
-        <v>1198.744892146779</v>
+        <v>1260.377884620504</v>
       </c>
       <c r="AC2" t="n">
-        <v>1084.338362089313</v>
+        <v>1140.089188263793</v>
       </c>
       <c r="AD2" t="n">
-        <v>876119.1642282925</v>
+        <v>921164.4830519378</v>
       </c>
       <c r="AE2" t="n">
-        <v>1198744.892146779</v>
+        <v>1260377.884620504</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.784477097099724e-06</v>
+        <v>3.535377672614314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.178125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1084338.362089313</v>
+        <v>1140089.188263793</v>
       </c>
     </row>
     <row r="3">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.7608929857583</v>
+        <v>473.4595636260585</v>
       </c>
       <c r="AB3" t="n">
-        <v>601.7002546644686</v>
+        <v>647.8082625149511</v>
       </c>
       <c r="AC3" t="n">
-        <v>544.2748268509024</v>
+        <v>585.9823511451303</v>
       </c>
       <c r="AD3" t="n">
-        <v>439760.8929857584</v>
+        <v>473459.5636260585</v>
       </c>
       <c r="AE3" t="n">
-        <v>601700.2546644686</v>
+        <v>647808.2625149512</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.560213660719992e-06</v>
+        <v>5.072254627387797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.396874999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>544274.8268509024</v>
+        <v>585982.3511451303</v>
       </c>
     </row>
     <row r="4">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.6391983503339</v>
+        <v>440.337868990634</v>
       </c>
       <c r="AB4" t="n">
-        <v>556.3816908382418</v>
+        <v>602.4896986887243</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.2814031512467</v>
+        <v>544.9889274454747</v>
       </c>
       <c r="AD4" t="n">
-        <v>406639.1983503339</v>
+        <v>440337.868990634</v>
       </c>
       <c r="AE4" t="n">
-        <v>556381.6908382417</v>
+        <v>602489.6986887243</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.656433923576822e-06</v>
+        <v>5.262884683391318e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.165624999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>503281.4031512467</v>
+        <v>544988.9274454747</v>
       </c>
     </row>
   </sheetData>
